--- a/publipostage/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00222066</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Comparison Between Abstention and Intrauterine Aspiration in the Treatment of Anechoic Fetal Ovarian Cysts to Prevent Ovarian Torsion</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,29 +531,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00243698</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00245869</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A Pilot Study Evaluation of the Efficacy of SonoVue to Detect and Characterise Breast Lesions</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Contrast-Enhanced Ultrasound and Neoadjuvant Chemotherapy of Breast Cancer: Relationship Between Early Vascular Changes of the Tumor and Late Tumoral Response</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,29 +569,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00245869</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT00243698</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Contrast-Enhanced Ultrasound and Neoadjuvant Chemotherapy of Breast Cancer: Relationship Between Early Vascular Changes of the Tumor and Late Tumoral Response</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A Pilot Study Evaluation of the Efficacy of SonoVue to Detect and Characterise Breast Lesions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -587,28 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00243633</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Characterization of Focal Liver Lesions by Real-Time Contrast-Enhanced Ultrasound Imaging (CEUS)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -620,32 +645,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT00497614</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>18F-FDG Positron Emission Tomography to Study the Response to Adalimumab in Rheumatoid Arthritis. A Monocentric Pilot Study</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>PETRA</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -657,32 +687,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT00507403</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Effect of Methotrexate on the Relation Dose-effect of Infliximab in Ankylosing Spondylitis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>SPAXIM</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -694,28 +729,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT01942239</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Real-time Continuous Glucose Monitoring Reduces Duration of Hypoglycemia Episodes in Very Low Birth Weight Neonates</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -727,32 +767,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT01014026</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Human Papillomavirus DNA Testing Using Self-collected Samples for Cervical Cancer Screening: an Alternative Strategy for Unscreened Women?</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>APACHE-1</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -764,28 +809,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT00593528</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Randomized Study With Medico-economic Evaluation Comparing the Use of PTFE Covered Stents vs Naked Stent in the TIPS (Transjugular Intra-hepatic Porto-systemic Shunt)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -797,29 +847,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT00308893</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT00489697</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Brain Derived Neurotrophic Factor (BDNF) Gene Polymorphism and Response to Antidepressants Treatment in Major Depression</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Medical and Economical Evaluation of Contrast-enhanced Ultrasound Imaging for the Early Estimate of Bevacizumab Effect on Colorectal Cancer Liver Metastases</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,32 +885,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT01350882</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT00308893</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Phase III Study of Impact of Treatment With Rituximab on the Progression of Humoral Acute Rejection After Renal Transplantation</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RITUX-ERAH</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+          <t>Brain Derived Neurotrophic Factor (BDNF) Gene Polymorphism and Response to Antidepressants Treatment in Major Depression</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -867,32 +923,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT02304900</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT01350882</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Effect of the Color of the Intra-eye Implant in the Cataract Surgery on the Sleep</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IOL et sommeil</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Phase III Study of Impact of Treatment With Rituximab on the Progression of Humoral Acute Rejection After Renal Transplantation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RITUX-ERAH</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -904,29 +965,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00489697</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT02304900</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Medical and Economical Evaluation of Contrast-enhanced Ultrasound Imaging for the Early Estimate of Bevacizumab Effect on Colorectal Cancer Liver Metastases</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Effect of the Color of the Intra-eye Implant in the Cataract Surgery on the Sleep</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>IOL et sommeil</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +1007,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT02574884</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01325259</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VINTAGE VHC</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Molecular Imaging of Cerebral Amyloid Plaques Using PET With Fluoro Tracker for Early Diagnosis of Alzheimer's Disease</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FAIR-AD</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -970,32 +1049,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT00512434</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01382160</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Injection of Concentrated Autologous Bone-marrow (IMOCA) and Bone Union of Open Tibial Shaft Fracture: Randomized Study to Assess Efficiency of IMOCA in Addition to Standard of Care.</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IMOCA</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Serum Concentration of Adalimumab (Humira) as a Predictive Factor of Clinical Outcomes in Rheumatoid Arthritis (AFORA)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>AFORA</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1007,32 +1091,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01427036</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01737606</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Impact Sur le Saignement Per et Post opératoire de 2 stratégies d'ostéosynthèse Des Fractures du Massif trochantérien du Sujet &gt; 65 Ans : Essai randomisé Comparant le système MISS et le système PHS</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MISSvsPHS</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Ultrasonic Explorations of Cerebral Tissue Motions - Influence of Aging</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>COSTUM</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1044,32 +1133,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01325259</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT02574884</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Molecular Imaging of Cerebral Amyloid Plaques Using PET With Fluoro Tracker for Early Diagnosis of Alzheimer's Disease</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>FAIR-AD</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>VINTAGE VHC</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1081,32 +1171,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT00841295</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT01427036</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Effects of Parenteral L-carnitine Supplementation in Premature Neonates</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CarniPrema</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Impact Sur le Saignement Per et Post opératoire de 2 stratégies d'ostéosynthèse Des Fractures du Massif trochantérien du Sujet &gt; 65 Ans : Essai randomisé Comparant le système MISS et le système PHS</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MISSvsPHS</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1118,32 +1213,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT00843817</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>RhDNase Effect on Biodistribution of PMN Serine Proteases in Cystic Fibrosis Sputum</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>BioDNase</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1155,32 +1255,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01737606</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT00841295</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Ultrasonic Explorations of Cerebral Tissue Motions - Influence of Aging</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>COSTUM</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Effects of Parenteral L-carnitine Supplementation in Premature Neonates</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CarniPrema</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1192,32 +1297,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT01382160</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT00512434</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Serum Concentration of Adalimumab (Humira) as a Predictive Factor of Clinical Outcomes in Rheumatoid Arthritis (AFORA)</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AFORA</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>Injection of Concentrated Autologous Bone-marrow (IMOCA) and Bone Union of Open Tibial Shaft Fracture: Randomized Study to Assess Efficiency of IMOCA in Addition to Standard of Care.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>IMOCA</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1229,32 +1339,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>NCT01770548</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Autism and Glutamatergic Synapse : Research of Genetic Mutations and Identification of Clinical and Neurophysiological Markers.</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>NMDA-Autism</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1266,32 +1381,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>NCT02570620</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Apport de l'échographie du Col Dans l'évaluation du Délai Induction Accouchement (DIA) Chez Des Patientes à Score de Bishop défavorable après déclenchement Par Dinoprostone Intravaginal</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>ECOLDIA</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1303,33 +1423,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01958814</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02103374</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Controlled Randomized Double-blind Study Comparing Salbutamol and Placebo Via Aerosol in Chronic Obstructive Respiratory Insufficiency in Exacerbartion Treated With Noninvasive Ventilation</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>BANNISTER</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Evaluation of Benefit of Nebulized Bronchodilators at Home in Severe Chronic Obstructive Pulmonary Disease and Very Severe Steady State</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Nebuadom</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1340,32 +1465,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>NCT02026622</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Comparative Study of Physiological and Cerebrovascular Reactivity in Depression, at the Three Phases of Emotion</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>EMPHILINE</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1377,32 +1507,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT01732991</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT01895764</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Assessing the Impact of the Prostatic Photo-vaporization (PVP) With Greenlight Laser Using Prostatic MRI and Contrast-enhanced Ultrasound</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PROPIL</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Effect of the Combination of Methotrexate and Adalimumab on Reduction of Immunization in Ankylosing Spondylitis (COMARIS)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>COMARIS</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1414,32 +1549,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT01895764</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02302534</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Effect of the Combination of Methotrexate and Adalimumab on Reduction of Immunization in Ankylosing Spondylitis (COMARIS)</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>COMARIS</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Pilot Study of Functional and Morphometric Brain Abnormalities Related to Adolescent Idiopathic Scoliosis (MOR-FO-SIA)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>MOR-FO-SIA</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1451,33 +1591,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02367001</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01958814</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Randomized Trial Evaluating the Effectiveness of a "Targeted Communication" With the General Practitioner Involvement in Cancer Screening Invitation Letters</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>GPs</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Controlled Randomized Double-blind Study Comparing Salbutamol and Placebo Via Aerosol in Chronic Obstructive Respiratory Insufficiency in Exacerbartion Treated With Noninvasive Ventilation</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>BANNISTER</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1488,32 +1633,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02567058</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01732991</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Biomechanical and Ultrasonic Assessment of the Achilles Tendon in Vivo (MEDUSAA)</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MEDUSAA</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Assessing the Impact of the Prostatic Photo-vaporization (PVP) With Greenlight Laser Using Prostatic MRI and Contrast-enhanced Ultrasound</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PROPIL</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1525,32 +1675,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT02302534</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02367001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pilot Study of Functional and Morphometric Brain Abnormalities Related to Adolescent Idiopathic Scoliosis (MOR-FO-SIA)</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MOR-FO-SIA</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Randomized Trial Evaluating the Effectiveness of a "Targeted Communication" With the General Practitioner Involvement in Cancer Screening Invitation Letters</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>GPs</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1562,32 +1717,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02103374</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT02061254</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Evaluation of Benefit of Nebulized Bronchodilators at Home in Severe Chronic Obstructive Pulmonary Disease and Very Severe Steady State</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nebuadom</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Transient Elastography DEdicated to Cosmetology And Dermatology (TEDECAD)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TEDECAD</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1599,32 +1759,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT02061254</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02567058</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Transient Elastography DEdicated to Cosmetology And Dermatology (TEDECAD)</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TEDECAD</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Biomechanical and Ultrasonic Assessment of the Achilles Tendon in Vivo (MEDUSAA)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>MEDUSAA</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1636,32 +1801,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>NCT01729468</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Prevention of Pre-eclampsia and SGA by Low-Dose Aspirin in Nulliparous Women With Abnormal First-trimester Uterine Artery Dopplers</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>PERASTUN</t>
         </is>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1673,33 +1843,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT02050269</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT02302573</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Measuring the Plasma Clearance of Iohexol to Estimate Glomerular Filtration Rate in Intensive Care Unit Patients: Preliminary Feasibility Study</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IoxRea</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
+          <t>Placenta Accreta : Contrast-enhanced Ultrasound Analysis in High Risk Population</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1710,33 +1881,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01960283</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02255084</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Randomized Clinical Trial Evaluating the Efficacy of Methotrexate in Addition to Anti-H1 Versus Placebo and Anti-H1 in the Treatment of Severe Chronic Idiopathic Urticaria</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MUCIS</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Attitude of Unscreened Women Face to Different Strategies to Participate in Cervical Cancer Screening by Vaginal Self-sampling : Home-mailed or Invitation to Remove to Their General Practitioner</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>APACHE-3</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1747,32 +1923,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02255084</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT02050269</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Attitude of Unscreened Women Face to Different Strategies to Participate in Cervical Cancer Screening by Vaginal Self-sampling : Home-mailed or Invitation to Remove to Their General Practitioner</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>APACHE-3</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Measuring the Plasma Clearance of Iohexol to Estimate Glomerular Filtration Rate in Intensive Care Unit Patients: Preliminary Feasibility Study</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>IoxRea</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1784,177 +1965,206 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02302573</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT01960283</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Placenta Accreta : Contrast-enhanced Ultrasound Analysis in High Risk Population</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="b">
-        <v>0</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Randomized Clinical Trial Evaluating the Efficacy of Methotrexate in Addition to Anti-H1 Versus Placebo and Anti-H1 in the Treatment of Severe Chronic Idiopathic Urticaria</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MUCIS</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT01816009</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT00645606</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Multicentric Study, of Non Inferiority, Randomized, Opened, to Evaluate the Two Durations Effectiveness of Antibiotherapy (6 Weeks Versus 12 Weeks) in the Treatment of Osteo-articular Prostheses Infections, With Prosthetic Change (in 1 Time or 2 Long Times) or Not (Articular Washing)</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DATIPO</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Single-agent Rituximab as Maintenance Treatment Versus Observation After Combined Induction Immunochemotherapy With Fludarabine, Cyclophosphamide and Rituximab in Patients Older Than 65 Years With Previously Untreated Chronic Lymphocytic Leukemia: a Phase III Trial of FILO</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>LLC2007SA</t>
+        </is>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT01388413</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT02789839</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>A Randomized, Multicenter, Parallel Group Study to Evaluate Safety and Efficacy of a Weekly Oral Cyclic Antibiotic Programme in the Prevention of Urinary Tract Infection on Neurological Bladder</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PACHIU</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Analyses of Bone Marrow and Blood Samples From Healthy Volunteers: Focus on the redOx Metabolism - HEALTHOX</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>HEALTHOX</t>
+        </is>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT00645606</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT01816009</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Single-agent Rituximab as Maintenance Treatment Versus Observation After Combined Induction Immunochemotherapy With Fludarabine, Cyclophosphamide and Rituximab in Patients Older Than 65 Years With Previously Untreated Chronic Lymphocytic Leukemia: a Phase III Trial of FILO</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>LLC2007SA</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
+          <t>Multicentric Study, of Non Inferiority, Randomized, Opened, to Evaluate the Two Durations Effectiveness of Antibiotherapy (6 Weeks Versus 12 Weeks) in the Treatment of Osteo-articular Prostheses Infections, With Prosthetic Change (in 1 Time or 2 Long Times) or Not (Articular Washing)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>DATIPO</t>
+        </is>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT02789839</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT01388413</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Analyses of Bone Marrow and Blood Samples From Healthy Volunteers: Focus on the redOx Metabolism - HEALTHOX</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>HEALTHOX</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>A Randomized, Multicenter, Parallel Group Study to Evaluate Safety and Efficacy of a Weekly Oral Cyclic Antibiotic Programme in the Prevention of Urinary Tract Infection on Neurological Bladder</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PACHIU</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1965,140 +2175,160 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02062099</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02263651</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>PET Imaging of the Translocator Proteine Ligands (TSPO) With [18 F] DPA-714 Biomarker of NeuroInflammation in Cognitive Decline (NIDECO)</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NIDeCo</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
+          <t>Dead Space Closure With Quilting Suture Versus Conventional Closure With Drainage in Prevention of Seroma Formation After Mastectomy for Breast Cancer : a Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>QUISERMAS</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>1</v>
       </c>
       <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02907060</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02573974</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Propess® Versus Double Balloon for Cervical Ripening of Prolonged Pregnancies: a Randomised Controlled Trial</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="b">
-        <v>1</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Study of Alterations in Skeletal Muscle Energy Metabolism in Undernourished Patients With Gastrointestinal Cancer</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>METERMUCADIG</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02185222</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02302547</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Effect of Vitamin D on Cognitive Decline of Patients With Memory Complaint</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>D-COG</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Randomized Clinical Trial to Evaluate the Interest of a Down-scaled Treatment Strategy Using Dual Therapy (Nucleoside Analogs) in HIV Infected Patients Already Being Treated Using Triple Therapy, Who Present With a Successful Virological Control and for Which the HIV Reservoir is Low to Moderate</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TRULIGHT</t>
+        </is>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT01983436</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02907060</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Impact of Manual Lymphatic Drainage on Postoperative Edema of the Face and the Neck After Orthognathic Surgery.Open-label Multicenter Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DLMOF</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
+          <t>Propess® Versus Double Balloon for Cervical Ripening of Prolonged Pregnancies: a Randomised Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2109,33 +2339,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT02573974</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02278848</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Study of Alterations in Skeletal Muscle Energy Metabolism in Undernourished Patients With Gastrointestinal Cancer</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>METERMUCADIG</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Multimodal Investigation in the Diagnosis and Treatment of Chronic Adult Hydrocephalus</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Multimod'HCA</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2146,32 +2381,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT02278848</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT02812979</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Multimodal Investigation in the Diagnosis and Treatment of Chronic Adult Hydrocephalus</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Multimod'HCA</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Evaluation of the Effectiveness of the Nebulization Bronchodilators Under High Nasal Flow Humidified Compared to a Usual Method</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>AirvoNEB</t>
+        </is>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2183,144 +2423,164 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT01962311</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT01628432</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Evaluation of Metabolomic Analysis in Early Diagnosis of ALS</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>METABALS</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Effect of Total Salpingectomy During Conservative Hysterectomy for Benign Disease on Ovarian Function: Non Inferiority Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>SALPINGOVA</t>
+        </is>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02302547</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT02185222</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Randomized Clinical Trial to Evaluate the Interest of a Down-scaled Treatment Strategy Using Dual Therapy (Nucleoside Analogs) in HIV Infected Patients Already Being Treated Using Triple Therapy, Who Present With a Successful Virological Control and for Which the HIV Reservoir is Low to Moderate</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TRULIGHT</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
+          <t>Effect of Vitamin D on Cognitive Decline of Patients With Memory Complaint</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>D-COG</t>
+        </is>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT01628432</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02062099</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Effect of Total Salpingectomy During Conservative Hysterectomy for Benign Disease on Ovarian Function: Non Inferiority Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SALPINGOVA</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>PET Imaging of the Translocator Proteine Ligands (TSPO) With [18 F] DPA-714 Biomarker of NeuroInflammation in Cognitive Decline (NIDECO)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NIDeCo</t>
+        </is>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT02263651</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT01962311</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Dead Space Closure With Quilting Suture Versus Conventional Closure With Drainage in Prevention of Seroma Formation After Mastectomy for Breast Cancer : a Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>QUISERMAS</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
+          <t>Evaluation of Metabolomic Analysis in Early Diagnosis of ALS</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>METABALS</t>
+        </is>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2331,32 +2591,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT02812979</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT01983436</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Evaluation of the Effectiveness of the Nebulization Bronchodilators Under High Nasal Flow Humidified Compared to a Usual Method</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AirvoNEB</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>Impact of Manual Lymphatic Drainage on Postoperative Edema of the Face and the Neck After Orthognathic Surgery.Open-label Multicenter Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>DLMOF</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2368,70 +2633,80 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT03000920</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03022968</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Multicenter Randomized Controlled Trial Evaluating the Effectiveness and Cost-effectiveness of the Use of Short Message Service (SMS) in the Screening Invitation Strategy for Breast Cancer.</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>USIMaPI</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Tau Brain Imaging in Typical and Atypical Alzheimer's Disease (AD)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TEPTAU</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT03084133</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02509468</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Impact of EDUcation Strategy on Patients With COLorectal CANCER or Advanced Adenoma in the Detection of Colorectal Cancer of Their First-degree Relatives - Randomized, Multicenter Cluster Test</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EDUCANCOLAGE</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Treatment of Superficial Voluminous Complicated Slow-flow Vascular Malformations With Sirolimus: a Phase 2 Trial in Children Observational-phase Designed</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PERFORMUS</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2442,32 +2717,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT03027479</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT01364857</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Study of Differences in Skeletal Muscle Energy Metabolism Alterations in Women With Weight Loss and Ovarian and/or Endometrial Cancer Based on the Body Mass Index</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>METERMUS-IMC</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>French National Prospective Cohort of Children With Port Wine Stain on a Limb = "Cohorte Nationale d'Enfants Avec Angiome Plan de Membre inférieur"</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CONAPE</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2479,32 +2759,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT03022968</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT03084133</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Tau Brain Imaging in Typical and Atypical Alzheimer's Disease (AD)</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TEPTAU</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Impact of EDUcation Strategy on Patients With COLorectal CANCER or Advanced Adenoma in the Detection of Colorectal Cancer of Their First-degree Relatives - Randomized, Multicenter Cluster Test</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>EDUCANCOLAGE</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2516,32 +2801,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>NCT02719951</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Glutaminergic Transmission in Autism : Molecular Imaging Exploration</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>TANGAU</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2553,32 +2843,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02931825</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02917473</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Identification of High Risk People for Colorectal Cancer in Indre-et-Loire (France) and Evaluation of a Specific Surveillance System : a Randomized Trial Assessing the Efficacy of a Letter Encouraging People to Perform Colonoscopy Screening</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ISIRECC</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Written Advice to Improve Compliance With Early Detection of Melanoma in First-degree Relatives: a Multicenter, Cluster-randomized Intervention Trial to Evaluate the Impact of Specific Incentives and Study Psychological Determinants of Early Melanoma Detection Behavior in First-degree Relatives</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FADEMELA</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2590,32 +2885,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02917473</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02304354</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Written Advice to Improve Compliance With Early Detection of Melanoma in First-degree Relatives: a Multicenter, Cluster-randomized Intervention Trial to Evaluate the Impact of Specific Incentives and Study Psychological Determinants of Early Melanoma Detection Behavior in First-degree Relatives</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FADEMELA</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Relationship Between T LYmphocytes Depletion and Clinical Response to RITUXimab in Rheumatoid Arthritis (LYRITUX)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>LYRITUX</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2627,70 +2927,80 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>NCT02670226</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Metabolomics and Transcriptomics Approaches to Identify Muscular Biomarkers in Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>METABOMU</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT02509468</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02377206</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Treatment of Superficial Voluminous Complicated Slow-flow Vascular Malformations With Sirolimus: a Phase 2 Trial in Children Observational-phase Designed</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PERFORMUS</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
+          <t>Neuroinflammation and Cognitive Decline in Alzheimer Disease (AD) : Pilot Study of Translocator Proteins Ligand PET Imaging With [18F]DPA-714</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NICAD</t>
+        </is>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2701,32 +3011,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02377206</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT02931825</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Neuroinflammation and Cognitive Decline in Alzheimer Disease (AD) : Pilot Study of Translocator Proteins Ligand PET Imaging With [18F]DPA-714</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NICAD</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Identification of High Risk People for Colorectal Cancer in Indre-et-Loire (France) and Evaluation of a Specific Surveillance System : a Randomized Trial Assessing the Efficacy of a Letter Encouraging People to Perform Colonoscopy Screening</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ISIRECC</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2738,32 +3053,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT01364857</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT03027479</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>French National Prospective Cohort of Children With Port Wine Stain on a Limb = "Cohorte Nationale d'Enfants Avec Angiome Plan de Membre inférieur"</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CONAPE</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Study of Differences in Skeletal Muscle Energy Metabolism Alterations in Women With Weight Loss and Ovarian and/or Endometrial Cancer Based on the Body Mass Index</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>METERMUS-IMC</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2775,32 +3095,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT02304354</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT03000920</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Relationship Between T LYmphocytes Depletion and Clinical Response to RITUXimab in Rheumatoid Arthritis (LYRITUX)</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LYRITUX</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Multicenter Randomized Controlled Trial Evaluating the Effectiveness and Cost-effectiveness of the Use of Short Message Service (SMS) in the Screening Invitation Strategy for Breast Cancer.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>USIMaPI</t>
+        </is>
       </c>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2812,70 +3137,80 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>NCT01962753</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Depression in the Elderly and Cerebral Amyloid Plaques: Characterization by [18F] AV-45 Affectives Symptoms and Amyloïd Plaques (ASAP)</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>ASAP</t>
         </is>
       </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT03927729</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT03024229</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Use of Methoxyflurane (Penthrox) as an Antalgic in Hospital Trauma</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UMATH</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>The Importance of Metabolomics in Assessing the Quality of Kidney Transplants Retained on a LifePort® Perfusion Machine Before Renal Transplantation</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>RENALIFE</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2886,32 +3221,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>NCT02517489</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Effects of Low-dose Corticosteroids on Survival of Severe Community-acquired Pneumonia</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>CAPE_COD</t>
         </is>
       </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
       <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2923,32 +3263,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT03002142</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT03927729</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Auditory Rehabilitation With Hearing Aids and Cognition in Alzheimer Patients</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RACO-MA</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>Use of Methoxyflurane (Penthrox) as an Antalgic in Hospital Trauma</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>UMATH</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2960,32 +3305,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>NCT04359875</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Does a Systematic Phone-call by a Medical Student/General Practitioner Team in Patients Suffering From a Chronic Condition During the COVID-19 Containment Period Impact One-month Hospitalization's Rate in France? A Cluster Randomized Trial</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>COVIQuest</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2997,70 +3347,80 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>NCT02990286</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Evaluation of Efficacy and Safety of Rituximab in Association With Mycophenolate Mofetil Versus Mycophenolate Mofetil Alone in Patients With Interstitial Lung Diseases (ILD) Non-responders to a First-line Immunosuppressive Treatment</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>EvER-ILD</t>
         </is>
       </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT03024229</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT03002142</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>The Importance of Metabolomics in Assessing the Quality of Kidney Transplants Retained on a LifePort® Perfusion Machine Before Renal Transplantation</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RENALIFE</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Auditory Rehabilitation With Hearing Aids and Cognition in Alzheimer Patients</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>RACO-MA</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3071,140 +3431,160 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02900053</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02809222</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Post-traumatic Stress Disorder Treatment Using Transcranial Direct Current Stimulation (tDCS) Enhancement of Trauma-focused Therapy : a Two-arm Randomized Controlled Multicentric Study - T-TREAt</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>T-TREAt</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Kinetics of the Plasmatic Concentration of L-Ascorbic Acid in Patient With Myelodysplastic Syndromes and Control Subjects</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>PLASMYC</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT04358939</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT02900053</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Evaluation of Prone Position in Conscious Patients on Nasal High-flow Oxygen Therapy for COVID-19 Disease Induced Acute Respiratory Distress Syndrome</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="b">
-        <v>1</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Post-traumatic Stress Disorder Treatment Using Transcranial Direct Current Stimulation (tDCS) Enhancement of Trauma-focused Therapy : a Two-arm Randomized Controlled Multicentric Study - T-TREAt</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>T-TREAt</t>
+        </is>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT03149640</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02455284</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Double-blinded Multicenter Randomized Controlled Trial Comparing Inhaled Amikacin Versus Placebo to Prevent Ventilator Associated Pneumonia</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AMIKINHAL</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
+          <t>In Vivo and ex Vivo Validation of MR Tractography of Brain White Matter Tracts - FIBRATLAS II-III</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>FIBRATLAS</t>
+        </is>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT03118193</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT04358939</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Biomarkers of Antidepressant Resistance - BIORESA</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BIORESA</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of Prone Position in Conscious Patients on Nasal High-flow Oxygen Therapy for COVID-19 Disease Induced Acute Respiratory Distress Syndrome</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3215,32 +3595,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT02809222</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT04199143</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Kinetics of the Plasmatic Concentration of L-Ascorbic Acid in Patient With Myelodysplastic Syndromes and Control Subjects</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PLASMYC</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
+          <t>Cerebrovascular Reactivity to Nitrous Oxyde in Resistant Depression: the PROTOBRAIN Pilote Study</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3252,32 +3633,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>NCT03856684</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Randomized Trial Evaluating Women's Behavior Not Participating in Cervical Cancer Screening Facing Three Strategies for Optimizing Home Sending by Post of Vaginal Self-sampling Kit</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>APACHE-4</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3289,28 +3675,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT04199143</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT04879277</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Cerebrovascular Reactivity to Nitrous Oxyde in Resistant Depression: the PROTOBRAIN Pilote Study</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="b">
-        <v>0</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Etude de l'INflammation systémique de Bas GRade Chez Les Patients Adultes Atteints de PHénylcétonurie</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>INGRAPH</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3322,70 +3717,80 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT02455284</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT03118193</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>In Vivo and ex Vivo Validation of MR Tractography of Brain White Matter Tracts - FIBRATLAS II-III</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>FIBRATLAS</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Biomarkers of Antidepressant Resistance - BIORESA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>BIORESA</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04879277</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT03149640</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Etude de l'INflammation systémique de Bas GRade Chez Les Patients Adultes Atteints de PHénylcétonurie</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>INGRAPH</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Double-blinded Multicenter Randomized Controlled Trial Comparing Inhaled Amikacin Versus Placebo to Prevent Ventilator Associated Pneumonia</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>AMIKINHAL</t>
+        </is>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3396,32 +3801,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT03924180</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03458975</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Glytactin EfficiEncy in Non or Insufficiently Treated Adult PHENylketonuria Patients</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>GLEEPHEN</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Targeted Delivery of Chemotherapy With Ultrasound and Microbubbles</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>SONCHIMIO</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3433,32 +3843,37 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>NCT02229123</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Levetiracetam Efficacy and Safety as First-line Treatment of Neonatal Seizures Occuring in Hypoxic-ischemic Encephalopathy Context</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>LEVNEONAT-1</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
       <c r="H83" t="b">
         <v>1</v>
       </c>
       <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3470,32 +3885,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT04725786</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT03924180</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Pertinence Clinique de l'échographie Thoracique Pour le Diagnostic précoce de la Pneumopathie Interstitielle Diffuse de la sclérodermie systémique - Etude Pilote</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>PRECOSS</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Glytactin EfficiEncy in Non or Insufficiently Treated Adult PHENylketonuria Patients</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>GLEEPHEN</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3507,70 +3927,80 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT03458975</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT04725786</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Targeted Delivery of Chemotherapy With Ultrasound and Microbubbles</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>SONCHIMIO</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Pertinence Clinique de l'échographie Thoracique Pour le Diagnostic précoce de la Pneumopathie Interstitielle Diffuse de la sclérodermie systémique - Etude Pilote</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>PRECOSS</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT04953286</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT03970499</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Tear Fluid and Ocular Surface Metabolomics and Lipidomics in Lateral Amyotrophic Sclerosis: a Prospective Comparative Study</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>LARMOMIQUE</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Evaluation de l'intérêt de l'élastographie Ultrasonore et du Doppler Ultrasensible peropératoires Dans la Prise en Charge Chirurgicale Des Tumeurs cérébrales</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>ELASTOGLI</t>
+        </is>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3581,32 +4011,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>NCT04570202</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Symptoms of Depression, Stress and Burnout, and Long-term Psychological Impact in Health Care Professionals Exposed to the Novel Coronavirus Disease 2019 Outbreak (HARD-COVID-19 - Health cAre woRkers exposeD to covID-19)</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>HARD-COVID19</t>
         </is>
       </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3618,70 +4053,80 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>NCT03680963</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Early Versus Differed Arterial Catheterization in Critically Ill Patients With Acute Circulatory Failure: A Multicentre, Open-label, Pragmatic, Randomised, Non-inferiority Controlled Trial (EVERDAC Trial)</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>EVERDAC</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
       <c r="H88" t="b">
         <v>1</v>
       </c>
       <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT03970499</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT04953286</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Evaluation de l'intérêt de l'élastographie Ultrasonore et du Doppler Ultrasensible peropératoires Dans la Prise en Charge Chirurgicale Des Tumeurs cérébrales</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ELASTOGLI</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
+          <t>Tear Fluid and Ocular Surface Metabolomics and Lipidomics in Lateral Amyotrophic Sclerosis: a Prospective Comparative Study</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>LARMOMIQUE</t>
+        </is>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3692,32 +4137,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>NCT06119971</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Effect of Acupressure on the "Yin-Tang" and "Shen-Men" Points on Pre and Postoperative Anxiety in Elective Caesarean Section: a Prospective, Single-blind, Randomised, Controlled Trial</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>ACUCESAR</t>
         </is>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
+++ b/publipostage/00jpq0w62/liste_essais_cliniques_identifies_00jpq0w62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +793,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +840,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -838,6 +883,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -876,6 +926,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,6 +969,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -956,6 +1016,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -998,6 +1063,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1040,6 +1110,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1082,6 +1157,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1124,6 +1204,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1162,6 +1247,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1204,6 +1294,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1246,6 +1341,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1288,6 +1388,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1330,6 +1435,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1372,6 +1482,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1414,6 +1529,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1456,6 +1576,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1498,6 +1623,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1540,6 +1670,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1582,6 +1717,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1624,6 +1764,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1666,6 +1811,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1708,6 +1858,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1750,6 +1905,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1792,6 +1952,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1834,6 +1999,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1872,6 +2042,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1914,6 +2089,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1956,6 +2136,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1998,6 +2183,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2040,6 +2230,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2082,6 +2277,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2124,6 +2324,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2166,6 +2371,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2208,6 +2418,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2250,6 +2465,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2292,6 +2512,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2330,6 +2555,11 @@
       <c r="J46" t="b">
         <v>1</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2372,6 +2602,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2414,6 +2649,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2456,6 +2696,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2498,6 +2743,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2540,6 +2790,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2582,6 +2837,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2624,6 +2884,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2666,6 +2931,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2708,6 +2978,11 @@
       <c r="J55" t="b">
         <v>1</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2750,6 +3025,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2792,6 +3072,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2834,6 +3119,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2876,6 +3166,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2918,6 +3213,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2960,6 +3260,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3002,6 +3307,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3044,6 +3354,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3086,6 +3401,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3128,6 +3448,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3170,6 +3495,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3212,6 +3542,11 @@
       <c r="J67" t="b">
         <v>1</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3254,6 +3589,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3296,6 +3636,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3338,6 +3683,11 @@
       <c r="J70" t="b">
         <v>1</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3380,6 +3730,11 @@
       <c r="J71" t="b">
         <v>1</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3422,6 +3777,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3464,6 +3824,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3506,6 +3871,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3548,6 +3918,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3586,6 +3961,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3624,6 +4004,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3666,6 +4051,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3708,6 +4098,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3750,6 +4145,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3792,6 +4192,11 @@
       <c r="J81" t="b">
         <v>1</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3834,6 +4239,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3876,6 +4286,11 @@
       <c r="J83" t="b">
         <v>1</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3918,6 +4333,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3960,6 +4380,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4002,6 +4427,11 @@
       <c r="J86" t="b">
         <v>1</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4044,6 +4474,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4086,6 +4521,11 @@
       <c r="J88" t="b">
         <v>1</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4128,6 +4568,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4169,6 +4614,11 @@
       </c>
       <c r="J90" t="b">
         <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
   </sheetData>
